--- a/pred_ohlcv/54_21/2019-11-13 PST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 PST ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-23602.0409464135</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-23602.0409464135</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-19117.762092827</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>156998.994207173</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>156965.994207173</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>174612.178407173</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>154228.229507173</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>153428.229507173</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>153454.019807173</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>153454.019807173</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>153454.019807173</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>164933.429107173</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>183682.818007173</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>183179.3733071731</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>182979.3733071731</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>182879.3733071731</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>176579.3733071731</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>174159.148807173</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>174159.148807173</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>171658.148807173</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>152576.263307173</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>136759.164607173</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>405788.690407173</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-13 PST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 PST ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>-23602.0409464135</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-23602.0409464135</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-23602.0409464135</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-28422.3757464135</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-37516.7942464135</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-19117.762092827</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>156998.994207173</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>156965.994207173</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>174612.178407173</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>154228.229507173</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>153428.229507173</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>153454.019807173</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>153454.019807173</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>153454.019807173</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>164933.429107173</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>182273.2630071731</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>182273.2630071731</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>183682.818007173</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>183179.3733071731</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>182979.3733071731</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>182879.3733071731</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>176579.3733071731</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>174159.148807173</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>152576.263307173</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>147522.270607173</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
